--- a/src/test/resources/loginData.xlsx
+++ b/src/test/resources/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nirmal\Interview\Git\texg-interview\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F99F65-D14C-4A6B-9CB9-DC9E88CEF90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0CCFAE-207F-4651-9DBE-988C197ADCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C2F8B00-D080-422C-8062-D2F5C6FE822E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>locked_out_user</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Log in using perfomnace glitch user</t>
+  </si>
+  <si>
+    <t>SECRET_SAUCE</t>
+  </si>
+  <si>
+    <t>STANDARD_USER</t>
+  </si>
+  <si>
+    <t>Login with upper case password</t>
+  </si>
+  <si>
+    <t>Login with upper case username</t>
   </si>
 </sst>
 </file>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD3283-7172-4DB9-9035-2FFAB0DE8CBC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,29 +577,63 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
